--- a/src/test/resources/TestData/Excel_Login_Pythoncode.xlsx
+++ b/src/test/resources/TestData/Excel_Login_Pythoncode.xlsx
@@ -196,10 +196,10 @@
     <t xml:space="preserve">jvjd</t>
   </si>
   <si>
-    <t xml:space="preserve">dashanaBhen</t>
+    <t xml:space="preserve">meenakanan</t>
   </si>
   <si>
-    <t xml:space="preserve">sdet2batch</t>
+    <t xml:space="preserve">sdet199batch</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/TestData/Excel_Login_Pythoncode.xlsx
+++ b/src/test/resources/TestData/Excel_Login_Pythoncode.xlsx
@@ -65,7 +65,7 @@
     <t xml:space="preserve">You are logged in</t>
   </si>
   <si>
-    <t xml:space="preserve">pCode</t>
+    <t xml:space="preserve">pyCode</t>
   </si>
   <si>
     <t xml:space="preserve">Result</t>

--- a/src/test/resources/TestData/Excel_Login_Pythoncode.xlsx
+++ b/src/test/resources/TestData/Excel_Login_Pythoncode.xlsx
@@ -196,10 +196,10 @@
     <t xml:space="preserve">jvjd</t>
   </si>
   <si>
-    <t xml:space="preserve">meenakanan</t>
+    <t xml:space="preserve">irabhende</t>
   </si>
   <si>
-    <t xml:space="preserve">sdet199batch</t>
+    <t xml:space="preserve">sdet19batch</t>
   </si>
 </sst>
 </file>
